--- a/総合テスト/5. シナリオテスト（ユーザー）/ST-SC-005.xlsx
+++ b/総合テスト/5. シナリオテスト（ユーザー）/ST-SC-005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\5. シナリオテスト（ユーザー）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E555D78B-0668-41AC-8AE5-F83F35896F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05749EF-8342-4FC0-A50F-28A0FC88B915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -86,6 +86,202 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>286376</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C6A26F-0114-CB59-4FEE-EE21C1B2CCC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12173576" cy="6426530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>229223</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>197177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FC658E-9FCC-79DC-6FBD-135D0A430E8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12116423" cy="6369377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>292726</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A0BE6EA-1886-4063-2185-B6E2A8E484D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12179926" cy="6439231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>267325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D60C03-6FA4-71DE-552D-F9FF42DB4D2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12154525" cy="6439231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,14 +549,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -374,6 +569,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -387,6 +583,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -394,12 +591,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B59740-561E-4898-B32F-4BD27D63EFBA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -446,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17728405-CDC0-4331-9A41-797DE0EA9495}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/総合テスト/5. シナリオテスト（ユーザー）/ST-SC-005.xlsx
+++ b/総合テスト/5. シナリオテスト（ユーザー）/ST-SC-005.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\5. シナリオテスト（ユーザー）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05749EF-8342-4FC0-A50F-28A0FC88B915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BCF6AC-2CC1-437A-A6D6-25F666885AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1-1" sheetId="1" r:id="rId1"/>
-    <sheet name="1-2" sheetId="2" r:id="rId2"/>
-    <sheet name="1-3" sheetId="3" r:id="rId3"/>
-    <sheet name="1-4" sheetId="4" r:id="rId4"/>
-    <sheet name="1-5" sheetId="5" r:id="rId5"/>
-    <sheet name="1-6" sheetId="6" r:id="rId6"/>
-    <sheet name="1-7" sheetId="7" r:id="rId7"/>
-    <sheet name="1-8" sheetId="8" r:id="rId8"/>
+    <sheet name="DB操作前" sheetId="9" r:id="rId1"/>
+    <sheet name="DB操作後" sheetId="10" r:id="rId2"/>
+    <sheet name="1-1" sheetId="1" r:id="rId3"/>
+    <sheet name="1-2" sheetId="2" r:id="rId4"/>
+    <sheet name="1-3" sheetId="3" r:id="rId5"/>
+    <sheet name="1-4" sheetId="4" r:id="rId6"/>
+    <sheet name="1-5" sheetId="5" r:id="rId7"/>
+    <sheet name="1-6" sheetId="6" r:id="rId8"/>
+    <sheet name="1-7" sheetId="7" r:id="rId9"/>
+    <sheet name="1-8" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -99,6 +101,280 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
+      <xdr:colOff>229223</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>197048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E3FA11-21A4-43DA-AC25-F1E37AFBD7F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12116423" cy="3854648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95866</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>63668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0DB29A-B8F9-4678-9B72-B34D54BB3E01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4114800"/>
+          <a:ext cx="11983066" cy="3264068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254624</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>44699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D22C23-9330-01F7-1C13-9CFFEFED1936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7772400"/>
+          <a:ext cx="12141824" cy="4845299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254624</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FE14D2-9FEC-4BF2-E518-41223A777E15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12141824" cy="3721291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>216522</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0B16D1-CD20-ED4F-F677-E2AB5193C31A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3886200"/>
+          <a:ext cx="12103722" cy="3206915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254624</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>82813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D3BB52-D0AB-F798-07F9-AC7A5A6F4D94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7315200"/>
+          <a:ext cx="12141824" cy="5112013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>286376</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>25730</xdr:rowOff>
@@ -137,7 +413,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -186,7 +462,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -235,7 +511,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -546,10 +822,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A26842D-765E-4AB4-86D7-1FE06BFB755F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
@@ -559,88 +837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5755536-0878-445A-A3B3-EFDB8AC79705}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8308C11C-AF0E-4264-AFEE-136546287790}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B59740-561E-4898-B32F-4BD27D63EFBA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42162FD5-2967-4956-B67D-2C6378AF800C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58455855-0332-456E-9AA7-3735182F1B34}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DB692B-7715-4036-9252-4ECA3816EA03}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17728405-CDC0-4331-9A41-797DE0EA9495}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -653,4 +850,115 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E90D3C-B615-4F2B-A05C-9BEA6D8E109E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5755536-0878-445A-A3B3-EFDB8AC79705}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8308C11C-AF0E-4264-AFEE-136546287790}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B59740-561E-4898-B32F-4BD27D63EFBA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42162FD5-2967-4956-B67D-2C6378AF800C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58455855-0332-456E-9AA7-3735182F1B34}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DB692B-7715-4036-9252-4ECA3816EA03}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>